--- a/Mar 2020 to Apr 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Mar 2020 to Apr 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928AAA3A-2202-4B21-877A-E01D4CB815D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D280FF64-0EF3-4FE8-8DEB-7D3BE8B7AA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,22 +169,22 @@
     <t>Spectrum Sportsnet LA</t>
   </si>
   <si>
-    <t>New Network added to database in Apr 2020</t>
-  </si>
-  <si>
-    <t>Old Network removed from database in Apr 2020</t>
-  </si>
-  <si>
-    <t>New Alias added for Network in Apr 2020</t>
-  </si>
-  <si>
-    <t>Network added to base Service in Apr 2020</t>
-  </si>
-  <si>
-    <t>Network added to Addon Package within Service in Apr 2020</t>
-  </si>
-  <si>
-    <t>Network moved from Base Service to Addon Package in Apr 2020</t>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Moved from Base Service to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
+  </si>
+  <si>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>New Network Added to Database in Apr 2020</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1036,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1076,7 +1076,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1090,7 +1090,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1104,7 +1104,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1118,7 +1118,7 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1132,7 +1132,7 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1146,7 +1146,7 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1160,7 +1160,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1174,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1188,7 +1188,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1202,7 +1202,7 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1216,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1230,7 +1230,7 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1244,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1258,7 +1258,7 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1272,7 +1272,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1306,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1323,7 +1323,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1340,7 +1340,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1354,7 +1354,7 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1368,7 +1368,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1382,7 +1382,7 @@
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1396,7 +1396,7 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1410,7 +1410,7 @@
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1424,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1438,7 +1438,7 @@
         <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1452,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1466,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1480,7 +1480,7 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1497,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1511,7 +1511,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1525,7 +1525,7 @@
         <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1539,7 +1539,7 @@
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1553,7 +1553,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1567,7 +1567,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1581,7 +1581,7 @@
         <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1595,7 +1595,7 @@
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1609,7 +1609,7 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1623,7 +1623,7 @@
         <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1637,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1651,7 +1651,7 @@
         <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1665,7 +1665,7 @@
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1679,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1693,7 +1693,7 @@
         <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1707,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1721,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1735,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -1763,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -1777,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
